--- a/biology/Botanique/Memecylaceae/Memecylaceae.xlsx
+++ b/biology/Botanique/Memecylaceae/Memecylaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Memecylaceae regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend plus de 430 espèces réparties en sept genres :
 Lijndenia (en), Memecylon, Mouriri, Pternandra (en), Spathandra (en), Votomita, Warneckea (en).
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Memecylon, issu du grec μιμημα / mimima, imitation ; il s'agit du « nom grec du fruit de l’arbutus. L'arbuste auquel la botanique moderne l'a donné ressemble à l'arbousier par son fruit en forme de baie couronnée par le calice »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Memecylon, issu du grec μιμημα / mimima, imitation ; il s'agit du « nom grec du fruit de l’arbutus. L'arbuste auquel la botanique moderne l'a donné ressemble à l'arbousier par son fruit en forme de baie couronnée par le calice ».
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification phylogénétique APG II (2003)[2], cette famille peut être optionnellement incluse dans celle des Melastomataceae.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Melastomataceae.
-En classification classique de Cronquist (1981)[4] ces plantes sont assignées à la famille Melastomataceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification phylogénétique APG II (2003), cette famille peut être optionnellement incluse dans celle des Melastomataceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Melastomataceae.
+En classification classique de Cronquist (1981) ces plantes sont assignées à la famille Melastomataceae.
 </t>
         </is>
       </c>
